--- a/Root-Wrod.xlsx
+++ b/Root-Wrod.xlsx
@@ -10,14 +10,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$F$101</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
+  <si>
+    <t>ORDER</t>
+  </si>
   <si>
     <t>SESSION</t>
   </si>
@@ -308,6 +311,747 @@
   </si>
   <si>
     <t>path</t>
+  </si>
+  <si>
+    <t>soma</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>psychologist</t>
+  </si>
+  <si>
+    <t>psychological</t>
+  </si>
+  <si>
+    <t>psyche</t>
+  </si>
+  <si>
+    <t>psychic</t>
+  </si>
+  <si>
+    <t>psychopathic</t>
+  </si>
+  <si>
+    <t>psychopathy</t>
+  </si>
+  <si>
+    <t>psychosomatic</t>
+  </si>
+  <si>
+    <t>psychoanalysis</t>
+  </si>
+  <si>
+    <t>psychoanalyst</t>
+  </si>
+  <si>
+    <t>psychogenic</t>
+  </si>
+  <si>
+    <t>psychoanalytic</t>
+  </si>
+  <si>
+    <t>therapist</t>
+  </si>
+  <si>
+    <t>psychotherapy</t>
+  </si>
+  <si>
+    <t>psychotherapist</t>
+  </si>
+  <si>
+    <t>psychotherapeutic</t>
+  </si>
+  <si>
+    <t>peri</t>
+  </si>
+  <si>
+    <t>endo</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>therm</t>
+  </si>
+  <si>
+    <t>sphygm</t>
+  </si>
+  <si>
+    <t>osteo</t>
+  </si>
+  <si>
+    <t>pod</t>
+  </si>
+  <si>
+    <t>pus</t>
+  </si>
+  <si>
+    <t>octo</t>
+  </si>
+  <si>
+    <t>platy</t>
+  </si>
+  <si>
+    <t>ium</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>chiro</t>
+  </si>
+  <si>
+    <t>mancy</t>
+  </si>
+  <si>
+    <t>pedodontist</t>
+  </si>
+  <si>
+    <t>pedodontia</t>
+  </si>
+  <si>
+    <t>pedodontic</t>
+  </si>
+  <si>
+    <t>periodonist</t>
+  </si>
+  <si>
+    <t>endodonist</t>
+  </si>
+  <si>
+    <t>exodonist</t>
+  </si>
+  <si>
+    <t>thermometer</t>
+  </si>
+  <si>
+    <t>barometer</t>
+  </si>
+  <si>
+    <t>barometric</t>
+  </si>
+  <si>
+    <t>sphygmomanometer</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>osteopath</t>
+  </si>
+  <si>
+    <t>osteopathic</t>
+  </si>
+  <si>
+    <t>podiatrist</t>
+  </si>
+  <si>
+    <t>podiatry</t>
+  </si>
+  <si>
+    <t>podiatric</t>
+  </si>
+  <si>
+    <t>octopus</t>
+  </si>
+  <si>
+    <t>platypus</t>
+  </si>
+  <si>
+    <t>podium</t>
+  </si>
+  <si>
+    <t>tripod</t>
+  </si>
+  <si>
+    <t>chiropodist</t>
+  </si>
+  <si>
+    <t>chiropody</t>
+  </si>
+  <si>
+    <t>chiropractors</t>
+  </si>
+  <si>
+    <t>chiropractic</t>
+  </si>
+  <si>
+    <t>chirography</t>
+  </si>
+  <si>
+    <t>penmanship</t>
+  </si>
+  <si>
+    <t>chirographer</t>
+  </si>
+  <si>
+    <t>chirographic</t>
+  </si>
+  <si>
+    <t>chiromancer</t>
+  </si>
+  <si>
+    <t>chiromantic</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>calli</t>
+  </si>
+  <si>
+    <t>caco</t>
+  </si>
+  <si>
+    <t>tele</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>geron</t>
+  </si>
+  <si>
+    <t>pyg</t>
+  </si>
+  <si>
+    <t>sen</t>
+  </si>
+  <si>
+    <t>escent</t>
+  </si>
+  <si>
+    <t>adol</t>
+  </si>
+  <si>
+    <t>conval</t>
+  </si>
+  <si>
+    <t>obsole</t>
+  </si>
+  <si>
+    <t>graphologist</t>
+  </si>
+  <si>
+    <t>graphology</t>
+  </si>
+  <si>
+    <t>calligraphy</t>
+  </si>
+  <si>
+    <t>calligrapher</t>
+  </si>
+  <si>
+    <t>calligraphic</t>
+  </si>
+  <si>
+    <t>cacography</t>
+  </si>
+  <si>
+    <t>cardiography</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>phonograph</t>
+  </si>
+  <si>
+    <t>telegraph</t>
+  </si>
+  <si>
+    <t>biograph</t>
+  </si>
+  <si>
+    <t>callipygian</t>
+  </si>
+  <si>
+    <t>gerontologist</t>
+  </si>
+  <si>
+    <t>gerontology</t>
+  </si>
+  <si>
+    <t>gerontological</t>
+  </si>
+  <si>
+    <t>senile</t>
+  </si>
+  <si>
+    <t>senescent</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>senate</t>
+  </si>
+  <si>
+    <t>senescence</t>
+  </si>
+  <si>
+    <t>adolescent</t>
+  </si>
+  <si>
+    <t>convalescent</t>
+  </si>
+  <si>
+    <t>obsolescent</t>
+  </si>
+  <si>
+    <t>astro</t>
+  </si>
+  <si>
+    <t>aster</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>naut</t>
+  </si>
+  <si>
+    <t>cosmo</t>
+  </si>
+  <si>
+    <t>dis</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>rge</t>
+  </si>
+  <si>
+    <t>ops</t>
+  </si>
+  <si>
+    <t>botan</t>
+  </si>
+  <si>
+    <t>zo</t>
+  </si>
+  <si>
+    <t>phil</t>
+  </si>
+  <si>
+    <t>astronomer</t>
+  </si>
+  <si>
+    <t>astronomy</t>
+  </si>
+  <si>
+    <t>astronomical</t>
+  </si>
+  <si>
+    <t>astrology</t>
+  </si>
+  <si>
+    <t>astrologer</t>
+  </si>
+  <si>
+    <t>astronaut</t>
+  </si>
+  <si>
+    <t>cosmonaut</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>asterisk</t>
+  </si>
+  <si>
+    <t>astrophysics</t>
+  </si>
+  <si>
+    <t>disaster</t>
+  </si>
+  <si>
+    <t>autonomy</t>
+  </si>
+  <si>
+    <t>autonomous</t>
+  </si>
+  <si>
+    <t>metronome</t>
+  </si>
+  <si>
+    <t>geologist</t>
+  </si>
+  <si>
+    <t>geology</t>
+  </si>
+  <si>
+    <t>geomerty</t>
+  </si>
+  <si>
+    <t>geometrician</t>
+  </si>
+  <si>
+    <t>geometric</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>geographic</t>
+  </si>
+  <si>
+    <t>biologist</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>biography</t>
+  </si>
+  <si>
+    <t>autobigraphy</t>
+  </si>
+  <si>
+    <t>biopsy</t>
+  </si>
+  <si>
+    <t>autopsy</t>
+  </si>
+  <si>
+    <t>botanist</t>
+  </si>
+  <si>
+    <t>botany</t>
+  </si>
+  <si>
+    <t>botanical</t>
+  </si>
+  <si>
+    <t>zoologist</t>
+  </si>
+  <si>
+    <t>zoology</t>
+  </si>
+  <si>
+    <t>zoological</t>
+  </si>
+  <si>
+    <t>zodiac</t>
+  </si>
+  <si>
+    <t>zodiacal</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>sect</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>dich</t>
+  </si>
+  <si>
+    <t>epi</t>
+  </si>
+  <si>
+    <t>olog</t>
+  </si>
+  <si>
+    <t>word,speech</t>
+  </si>
+  <si>
+    <t>lingu</t>
+  </si>
+  <si>
+    <t>soph</t>
+  </si>
+  <si>
+    <t>adelph</t>
+  </si>
+  <si>
+    <t>harmonic</t>
+  </si>
+  <si>
+    <t>aphrodi</t>
+  </si>
+  <si>
+    <t>biblio</t>
+  </si>
+  <si>
+    <t>soci</t>
+  </si>
+  <si>
+    <t>anti</t>
+  </si>
+  <si>
+    <t>entomology</t>
+  </si>
+  <si>
+    <t>entomological</t>
+  </si>
+  <si>
+    <t>insect</t>
+  </si>
+  <si>
+    <t>tonsillectomy</t>
+  </si>
+  <si>
+    <t>eccentricity</t>
+  </si>
+  <si>
+    <t>eccentric</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>atomic</t>
+  </si>
+  <si>
+    <t>anatomy</t>
+  </si>
+  <si>
+    <t>anatomical</t>
+  </si>
+  <si>
+    <t>dichotomy</t>
+  </si>
+  <si>
+    <t>dichotomize</t>
+  </si>
+  <si>
+    <t>dichotomous</t>
+  </si>
+  <si>
+    <t>apitomy</t>
+  </si>
+  <si>
+    <t>apitomize</t>
+  </si>
+  <si>
+    <t>philology</t>
+  </si>
+  <si>
+    <t>philanthropy</t>
+  </si>
+  <si>
+    <t>philanthropist</t>
+  </si>
+  <si>
+    <t>philanthropic</t>
+  </si>
+  <si>
+    <t>philander</t>
+  </si>
+  <si>
+    <t>philandering</t>
+  </si>
+  <si>
+    <t>philanderer</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>philadelphia</t>
+  </si>
+  <si>
+    <t>philharmonic</t>
+  </si>
+  <si>
+    <t>philter</t>
+  </si>
+  <si>
+    <t>aphrodisiac</t>
+  </si>
+  <si>
+    <t>aphrodisiacal</t>
+  </si>
+  <si>
+    <t>bibliophile</t>
+  </si>
+  <si>
+    <t>anglophile</t>
+  </si>
+  <si>
+    <t>semanticist</t>
+  </si>
+  <si>
+    <t>semantic</t>
+  </si>
+  <si>
+    <t>sociology</t>
+  </si>
+  <si>
+    <t>associate</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>socialize</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>sociable</t>
+  </si>
+  <si>
+    <t>antisocial</t>
+  </si>
+  <si>
+    <t>asocial</t>
+  </si>
+  <si>
+    <t>notorious</t>
+  </si>
+  <si>
+    <t>consummate</t>
+  </si>
+  <si>
+    <t>incorrigible</t>
+  </si>
+  <si>
+    <t>inveterate</t>
+  </si>
+  <si>
+    <t>congenital</t>
+  </si>
+  <si>
+    <t>chronic</t>
+  </si>
+  <si>
+    <t>pathological</t>
+  </si>
+  <si>
+    <t>unconscionable</t>
+  </si>
+  <si>
+    <t>egregious</t>
+  </si>
+  <si>
+    <t>noto,not</t>
+  </si>
+  <si>
+    <t>summ</t>
+  </si>
+  <si>
+    <t>higest</t>
+  </si>
+  <si>
+    <t>ness</t>
+  </si>
+  <si>
+    <t>acy</t>
+  </si>
+  <si>
+    <t>ion</t>
+  </si>
+  <si>
+    <t>corrigi</t>
+  </si>
+  <si>
+    <t>to correct</t>
+  </si>
+  <si>
+    <t>vete</t>
+  </si>
+  <si>
+    <t>gene,gen</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>notoriety</t>
+  </si>
+  <si>
+    <t>childish</t>
+  </si>
+  <si>
+    <t>childlike</t>
+  </si>
+  <si>
+    <t>noted</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>consummateness</t>
+  </si>
+  <si>
+    <t>consummacy</t>
+  </si>
+  <si>
+    <t>incorrigibility</t>
+  </si>
+  <si>
+    <t>incorrigibleness</t>
+  </si>
+  <si>
+    <t>inveteracy</t>
+  </si>
+  <si>
+    <t>inveterateness</t>
+  </si>
+  <si>
+    <t>veteran</t>
+  </si>
+  <si>
+    <t>genetics</t>
+  </si>
+  <si>
+    <t>geneticist</t>
+  </si>
+  <si>
+    <t>genetic</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>genealogy</t>
+  </si>
+  <si>
+    <t>genealogist</t>
+  </si>
+  <si>
+    <t>genital</t>
+  </si>
+  <si>
+    <t>genesis</t>
+  </si>
+  <si>
+    <t>hereditary</t>
   </si>
 </sst>
 </file>
@@ -315,10 +1059,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -336,17 +1080,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,18 +1097,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,14 +1166,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -415,23 +1173,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,13 +1194,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -458,16 +1202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,13 +1238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +1256,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +1304,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,55 +1388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,67 +1406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,47 +1424,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -741,6 +1453,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -756,20 +1503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,148 +1522,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,15 +1990,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:H362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D362" sqref="D362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="5" max="5" width="22.6160714285714" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1268,841 +2017,3688 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="B22">
         <v>4</v>
       </c>
-      <c r="B20"/>
-      <c r="D20" t="s">
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="B21"/>
-      <c r="D21" t="s">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="B22"/>
-      <c r="D22" t="s">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="B23"/>
-      <c r="D23" t="s">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="B24"/>
-      <c r="D24" t="s">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="B27">
         <v>4</v>
       </c>
-      <c r="B25"/>
-      <c r="D25" t="s">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+      <c r="B28">
         <v>4</v>
       </c>
-      <c r="B26"/>
-      <c r="D26" t="s">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27"/>
-      <c r="D27" t="s">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28"/>
-      <c r="D28" t="s">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+      <c r="B32">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="B33">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+      <c r="B34">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
+      <c r="B42">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
+      <c r="B44">
         <v>5</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="B43"/>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>5</v>
       </c>
-      <c r="B44"/>
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>5</v>
       </c>
-      <c r="B45"/>
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>5</v>
       </c>
-      <c r="B46"/>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="B47"/>
-      <c r="D47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>5</v>
       </c>
-      <c r="B48"/>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>5</v>
       </c>
-      <c r="B49"/>
-      <c r="D49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>5</v>
       </c>
-      <c r="B50"/>
-      <c r="D50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
+      <c r="E52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="B51"/>
-      <c r="D51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>5</v>
       </c>
-      <c r="B52"/>
-      <c r="D52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="B53"/>
-      <c r="D53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>5</v>
       </c>
-      <c r="B54"/>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <v>5</v>
       </c>
-      <c r="B55"/>
-      <c r="D55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
         <v>5</v>
       </c>
-      <c r="B56"/>
-      <c r="D56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
+      <c r="E58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
         <v>5</v>
       </c>
-      <c r="B57"/>
-      <c r="D57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
         <v>5</v>
       </c>
-      <c r="B58"/>
-      <c r="D58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
         <v>5</v>
       </c>
-      <c r="B59"/>
-      <c r="D59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
         <v>5</v>
       </c>
-      <c r="B60"/>
-      <c r="D60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>5</v>
       </c>
-      <c r="D61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
         <v>5</v>
       </c>
-      <c r="D62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
+      <c r="E64" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <v>5</v>
       </c>
-      <c r="D63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
+      <c r="E65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
         <v>5</v>
       </c>
-      <c r="D64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
+      <c r="E66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>5</v>
-      </c>
-      <c r="D66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>5</v>
-      </c>
-      <c r="D67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="E67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
         <v>6</v>
       </c>
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>6</v>
       </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
         <v>6</v>
       </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <v>6</v>
       </c>
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
         <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>70</v>
       </c>
       <c r="C72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
         <v>6</v>
       </c>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
         <v>6</v>
       </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
         <v>6</v>
       </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="C75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
         <v>6</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="E134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>9</v>
+      </c>
+      <c r="E160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>9</v>
+      </c>
+      <c r="E162" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>9</v>
+      </c>
+      <c r="E168" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>10</v>
+      </c>
+      <c r="C172" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>6</v>
-      </c>
-      <c r="D80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>6</v>
-      </c>
-      <c r="D88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>6</v>
-      </c>
-      <c r="D89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>6</v>
-      </c>
-      <c r="D98" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>10</v>
+      </c>
+      <c r="C176" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="C177" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>10</v>
+      </c>
+      <c r="C178" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="E188" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="E189" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>10</v>
+      </c>
+      <c r="E191" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>10</v>
+      </c>
+      <c r="E192" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>96</v>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>10</v>
+      </c>
+      <c r="E196" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>10</v>
+      </c>
+      <c r="E198" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>10</v>
+      </c>
+      <c r="E199" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>10</v>
+      </c>
+      <c r="E201" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>10</v>
+      </c>
+      <c r="E202" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>10</v>
+      </c>
+      <c r="E204" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>10</v>
+      </c>
+      <c r="E205" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>10</v>
+      </c>
+      <c r="E206" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>12</v>
+      </c>
+      <c r="C216" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>12</v>
+      </c>
+      <c r="C217" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>12</v>
+      </c>
+      <c r="C218" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>12</v>
+      </c>
+      <c r="C219" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>12</v>
+      </c>
+      <c r="C220" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>12</v>
+      </c>
+      <c r="E221" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>12</v>
+      </c>
+      <c r="E222" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>12</v>
+      </c>
+      <c r="E223" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>12</v>
+      </c>
+      <c r="E226" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>12</v>
+      </c>
+      <c r="E227" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>12</v>
+      </c>
+      <c r="E228" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>12</v>
+      </c>
+      <c r="E229" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>12</v>
+      </c>
+      <c r="E230" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>12</v>
+      </c>
+      <c r="E231" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>12</v>
+      </c>
+      <c r="E232" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>12</v>
+      </c>
+      <c r="E233" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>12</v>
+      </c>
+      <c r="E234" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>12</v>
+      </c>
+      <c r="E235" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>12</v>
+      </c>
+      <c r="E236" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>12</v>
+      </c>
+      <c r="E237" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>12</v>
+      </c>
+      <c r="E238" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="E239" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>12</v>
+      </c>
+      <c r="E241" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>12</v>
+      </c>
+      <c r="E242" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>12</v>
+      </c>
+      <c r="E244" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>12</v>
+      </c>
+      <c r="E245" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>12</v>
+      </c>
+      <c r="E246" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>12</v>
+      </c>
+      <c r="E247" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>12</v>
+      </c>
+      <c r="E248" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>12</v>
+      </c>
+      <c r="E249" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>12</v>
+      </c>
+      <c r="E250" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>12</v>
+      </c>
+      <c r="E251" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>12</v>
+      </c>
+      <c r="E252" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>12</v>
+      </c>
+      <c r="E253" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>12</v>
+      </c>
+      <c r="E254" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257">
+        <v>13</v>
+      </c>
+      <c r="C257" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258">
+        <v>13</v>
+      </c>
+      <c r="C258" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259">
+        <v>13</v>
+      </c>
+      <c r="C259" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260">
+        <v>13</v>
+      </c>
+      <c r="C260" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261">
+        <v>13</v>
+      </c>
+      <c r="C261" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262">
+        <v>13</v>
+      </c>
+      <c r="C262" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="B263">
+        <v>13</v>
+      </c>
+      <c r="C263" t="s">
+        <v>248</v>
+      </c>
+      <c r="D263" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="B266">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>252</v>
+      </c>
+      <c r="D266" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268">
+        <v>13</v>
+      </c>
+      <c r="C268" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="B271">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="B272">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="B274">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="B276">
+        <v>13</v>
+      </c>
+      <c r="E276" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="B277">
+        <v>13</v>
+      </c>
+      <c r="E277" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="B278">
+        <v>13</v>
+      </c>
+      <c r="E278" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="B279">
+        <v>13</v>
+      </c>
+      <c r="E279" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="B280">
+        <v>13</v>
+      </c>
+      <c r="E280" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="B281">
+        <v>13</v>
+      </c>
+      <c r="E281" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282">
+        <v>13</v>
+      </c>
+      <c r="E282" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="B283">
+        <v>13</v>
+      </c>
+      <c r="E283" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5">
+      <c r="B284">
+        <v>13</v>
+      </c>
+      <c r="E284" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="B285">
+        <v>13</v>
+      </c>
+      <c r="E285" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="B286">
+        <v>13</v>
+      </c>
+      <c r="E286" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="B287">
+        <v>13</v>
+      </c>
+      <c r="E287" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="B288">
+        <v>13</v>
+      </c>
+      <c r="E288" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5">
+      <c r="B289">
+        <v>13</v>
+      </c>
+      <c r="E289" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5">
+      <c r="B290">
+        <v>13</v>
+      </c>
+      <c r="E290" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5">
+      <c r="B291">
+        <v>13</v>
+      </c>
+      <c r="E291" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5">
+      <c r="B292">
+        <v>13</v>
+      </c>
+      <c r="E292" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5">
+      <c r="B293">
+        <v>13</v>
+      </c>
+      <c r="E293" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5">
+      <c r="B294">
+        <v>13</v>
+      </c>
+      <c r="E294" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5">
+      <c r="B295">
+        <v>13</v>
+      </c>
+      <c r="E295" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5">
+      <c r="B296">
+        <v>13</v>
+      </c>
+      <c r="E296" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5">
+      <c r="B297">
+        <v>13</v>
+      </c>
+      <c r="E297" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5">
+      <c r="B298">
+        <v>13</v>
+      </c>
+      <c r="E298" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5">
+      <c r="B299">
+        <v>13</v>
+      </c>
+      <c r="E299" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5">
+      <c r="B300">
+        <v>13</v>
+      </c>
+      <c r="E300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5">
+      <c r="B301">
+        <v>13</v>
+      </c>
+      <c r="E301" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5">
+      <c r="B302">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5">
+      <c r="B303">
+        <v>13</v>
+      </c>
+      <c r="E303" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5">
+      <c r="B304">
+        <v>13</v>
+      </c>
+      <c r="E304" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="B305">
+        <v>13</v>
+      </c>
+      <c r="E305" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="B306">
+        <v>13</v>
+      </c>
+      <c r="E306" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5">
+      <c r="B307">
+        <v>13</v>
+      </c>
+      <c r="E307" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="B308">
+        <v>13</v>
+      </c>
+      <c r="E308" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="B309">
+        <v>13</v>
+      </c>
+      <c r="E309" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5">
+      <c r="B310">
+        <v>13</v>
+      </c>
+      <c r="E310" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5">
+      <c r="B311">
+        <v>13</v>
+      </c>
+      <c r="E311" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5">
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="E312" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5">
+      <c r="B313">
+        <v>13</v>
+      </c>
+      <c r="E313" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5">
+      <c r="B314">
+        <v>13</v>
+      </c>
+      <c r="E314" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5">
+      <c r="B315">
+        <v>13</v>
+      </c>
+      <c r="E315" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5">
+      <c r="B316">
+        <v>14</v>
+      </c>
+      <c r="E316" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5">
+      <c r="B317">
+        <v>14</v>
+      </c>
+      <c r="E317" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5">
+      <c r="B318">
+        <v>14</v>
+      </c>
+      <c r="E318" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5">
+      <c r="B319">
+        <v>14</v>
+      </c>
+      <c r="E319" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5">
+      <c r="B320">
+        <v>14</v>
+      </c>
+      <c r="E320" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5">
+      <c r="B321">
+        <v>14</v>
+      </c>
+      <c r="E321" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5">
+      <c r="B322">
+        <v>14</v>
+      </c>
+      <c r="E322" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5">
+      <c r="B323">
+        <v>14</v>
+      </c>
+      <c r="E323" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5">
+      <c r="B324">
+        <v>14</v>
+      </c>
+      <c r="E324" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325">
+        <v>15</v>
+      </c>
+      <c r="C325" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4">
+      <c r="B326">
+        <v>15</v>
+      </c>
+      <c r="C326" t="s">
+        <v>312</v>
+      </c>
+      <c r="D326" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327">
+        <v>15</v>
+      </c>
+      <c r="C327" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328">
+        <v>15</v>
+      </c>
+      <c r="C328" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329">
+        <v>15</v>
+      </c>
+      <c r="C329" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4">
+      <c r="B330">
+        <v>15</v>
+      </c>
+      <c r="C330" t="s">
+        <v>317</v>
+      </c>
+      <c r="D330" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331">
+        <v>15</v>
+      </c>
+      <c r="C331" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332">
+        <v>15</v>
+      </c>
+      <c r="C332" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333">
+        <v>15</v>
+      </c>
+      <c r="C333" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334">
+        <v>15</v>
+      </c>
+      <c r="C334" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4">
+      <c r="B335">
+        <v>15</v>
+      </c>
+      <c r="C335" t="s">
+        <v>244</v>
+      </c>
+      <c r="D335" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5">
+      <c r="B336">
+        <v>15</v>
+      </c>
+      <c r="E336" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5">
+      <c r="B337">
+        <v>15</v>
+      </c>
+      <c r="E337" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5">
+      <c r="B338">
+        <v>15</v>
+      </c>
+      <c r="E338" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5">
+      <c r="B339">
+        <v>15</v>
+      </c>
+      <c r="E339" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5">
+      <c r="B340">
+        <v>15</v>
+      </c>
+      <c r="E340" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5">
+      <c r="B341">
+        <v>15</v>
+      </c>
+      <c r="E341" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5">
+      <c r="B342">
+        <v>15</v>
+      </c>
+      <c r="E342" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5">
+      <c r="B343">
+        <v>15</v>
+      </c>
+      <c r="E343" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5">
+      <c r="B344">
+        <v>15</v>
+      </c>
+      <c r="E344" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5">
+      <c r="B345">
+        <v>15</v>
+      </c>
+      <c r="E345" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5">
+      <c r="B346">
+        <v>15</v>
+      </c>
+      <c r="E346" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5">
+      <c r="B347">
+        <v>15</v>
+      </c>
+      <c r="E347" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5">
+      <c r="B348">
+        <v>15</v>
+      </c>
+      <c r="E348" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5">
+      <c r="B349">
+        <v>15</v>
+      </c>
+      <c r="E349" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5">
+      <c r="B350">
+        <v>15</v>
+      </c>
+      <c r="E350" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5">
+      <c r="B351">
+        <v>15</v>
+      </c>
+      <c r="E351" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5">
+      <c r="B352">
+        <v>15</v>
+      </c>
+      <c r="E352" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5">
+      <c r="B353">
+        <v>15</v>
+      </c>
+      <c r="E353" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5">
+      <c r="B354">
+        <v>15</v>
+      </c>
+      <c r="E354" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5">
+      <c r="B355">
+        <v>15</v>
+      </c>
+      <c r="E355" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5">
+      <c r="B356">
+        <v>15</v>
+      </c>
+      <c r="E356" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5">
+      <c r="B357">
+        <v>15</v>
+      </c>
+      <c r="E357" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5">
+      <c r="B358">
+        <v>15</v>
+      </c>
+      <c r="E358" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5">
+      <c r="B359">
+        <v>15</v>
+      </c>
+      <c r="E359" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5">
+      <c r="B360">
+        <v>15</v>
+      </c>
+      <c r="E360" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5">
+      <c r="B361">
+        <v>15</v>
+      </c>
+      <c r="E361" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5">
+      <c r="B362">
+        <v>15</v>
+      </c>
+      <c r="E362" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E60"/>
+  <autoFilter ref="C1:F101"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
